--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22931"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="396" documentId="11_3E21DB30A2484D11841266A29219685ED151E7F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{42EC8F97-92CA-4E40-B72D-58DB0CF15C11}"/>
+  <xr:revisionPtr revIDLastSave="409" documentId="11_3E21DB30A2484D11841266A29219685ED151E7F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08E3EE6F-D241-4522-9C8B-AEF1E6FFB829}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="121">
   <si>
     <t>改定履歴</t>
   </si>
@@ -674,22 +674,10 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>作成者</t>
-  </si>
-  <si>
-    <t>create_user_id</t>
-  </si>
-  <si>
     <t>更新日時</t>
   </si>
   <si>
     <t>updated_at</t>
-  </si>
-  <si>
-    <t>更新者</t>
-  </si>
-  <si>
-    <t>update_user_id</t>
   </si>
   <si>
     <t>join_table</t>
@@ -705,6 +693,12 @@
   </si>
   <si>
     <t>chat_room_id</t>
+  </si>
+  <si>
+    <t>参加日時</t>
+  </si>
+  <si>
+    <t>join_date</t>
   </si>
   <si>
     <t>chat_rooms</t>
@@ -735,6 +729,18 @@
   </si>
   <si>
     <t>is_diret_chat</t>
+  </si>
+  <si>
+    <t>作成者</t>
+  </si>
+  <si>
+    <t>create_user_id</t>
+  </si>
+  <si>
+    <t>更新者</t>
+  </si>
+  <si>
+    <t>update_user_id</t>
   </si>
   <si>
     <t>posts</t>
@@ -931,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -984,6 +990,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -32155,7 +32162,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="D20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -32172,61 +32179,61 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -32257,11 +32264,11 @@
       <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="6">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -32289,11 +32296,11 @@
         <v>27</v>
       </c>
       <c r="K5" s="22"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32317,11 +32324,11 @@
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32343,11 +32350,11 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32375,11 +32382,11 @@
       <c r="K8" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="26"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32401,11 +32408,11 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32429,11 +32436,11 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="26"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32455,11 +32462,11 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32483,8 +32490,8 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32503,11 +32510,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32524,53 +32531,53 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -32603,7 +32610,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="8">
         <f>ROW()-4</f>
         <v>1</v>
@@ -32633,9 +32640,9 @@
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="6">
-        <f t="shared" ref="B6:B16" si="0">ROW()-4</f>
+        <f t="shared" ref="B6:B14" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -32659,7 +32666,7 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32685,7 +32692,7 @@
       <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32711,7 +32718,7 @@
       <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="26"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32735,7 +32742,7 @@
       <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32759,7 +32766,7 @@
       <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="26"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32783,7 +32790,7 @@
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32811,7 +32818,7 @@
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="26"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32835,7 +32842,7 @@
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="26"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32847,349 +32854,367 @@
         <v>78</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="19">
-        <v>11</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F14" s="18"/>
       <c r="G14" s="22"/>
       <c r="H14" s="20" t="s">
         <v>54</v>
       </c>
       <c r="I14" s="22"/>
-      <c r="J14" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="26"/>
-      <c r="B15" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="14" t="s">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="12.75">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="26"/>
-      <c r="B16" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="19">
-        <v>11</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="22"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="12.75">
       <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="12.75">
+      <c r="A20" s="27"/>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="18">
+        <v>11</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="12.75">
+      <c r="A22" s="27"/>
+      <c r="B22" s="6">
         <v>2</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="C22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="31" t="s">
+      <c r="E22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="18">
+        <v>11</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="1:11" s="27" customFormat="1" ht="12.75">
+      <c r="B23" s="6">
+        <v>3</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="12.75">
-      <c r="A21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="12.75">
-      <c r="A22" s="26"/>
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="E23" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="18">
-        <v>11</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F23" s="18"/>
       <c r="G23" s="22"/>
       <c r="H23" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="15"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="12.75">
-      <c r="A24" s="26"/>
-      <c r="B24" s="6">
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+    </row>
+    <row r="26" spans="1:11" s="24" customFormat="1">
+      <c r="A26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="B26" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="18">
-        <v>11</v>
-      </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
     </row>
     <row r="27" spans="1:11" s="24" customFormat="1">
       <c r="A27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
     </row>
     <row r="28" spans="1:11" s="24" customFormat="1">
       <c r="A28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+    </row>
+    <row r="29" spans="1:11" s="24" customFormat="1" ht="12.75">
+      <c r="A29" s="27"/>
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A30" s="27"/>
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="18">
+        <v>11</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="22"/>
+    </row>
+    <row r="31" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="27"/>
+      <c r="B31" s="6">
+        <v>2</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-    </row>
-    <row r="29" spans="1:11" s="24" customFormat="1">
-      <c r="A29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-    </row>
-    <row r="30" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A30" s="26"/>
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="6">
-        <v>1</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="E31" s="15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F31" s="18">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="32" spans="1:11" s="24" customFormat="1" ht="12.75">
+      <c r="A32" s="27"/>
       <c r="B32" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>90</v>
@@ -33201,20 +33226,18 @@
         <v>59</v>
       </c>
       <c r="F32" s="18">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G32" s="22"/>
-      <c r="H32" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
       <c r="K32" s="22"/>
     </row>
     <row r="33" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A33" s="26"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>92</v>
@@ -33223,21 +33246,23 @@
         <v>93</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F33" s="18">
-        <v>1000</v>
-      </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="22">
+        <v>1</v>
+      </c>
+      <c r="H33" s="18"/>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
     </row>
     <row r="34" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A34" s="26"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>94</v>
@@ -33254,21 +33279,21 @@
       <c r="G34" s="22">
         <v>1</v>
       </c>
-      <c r="H34" s="18"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
     </row>
     <row r="35" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A35" s="26"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>73</v>
@@ -33277,65 +33302,67 @@
         <v>1</v>
       </c>
       <c r="G35" s="22">
-        <v>1</v>
-      </c>
-      <c r="H35" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="21"/>
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
     </row>
     <row r="36" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A36" s="26"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="18">
-        <v>1</v>
-      </c>
-      <c r="G36" s="22">
-        <v>0</v>
-      </c>
-      <c r="H36" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A37" s="26"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="F37" s="18">
+        <v>11</v>
+      </c>
       <c r="G37" s="22"/>
       <c r="H37" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
+      <c r="J37" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="K37" s="17"/>
     </row>
     <row r="38" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A38" s="26"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>77</v>
@@ -33344,307 +33371,308 @@
         <v>78</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="18">
-        <v>11</v>
-      </c>
-      <c r="G38" s="22"/>
+        <v>76</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I38" s="22"/>
-      <c r="J38" s="22" t="s">
+      <c r="J38" s="22"/>
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="1:11" s="24" customFormat="1" ht="12.75">
+      <c r="A39" s="27"/>
+      <c r="B39" s="6">
+        <v>10</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="19">
+        <v>11</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="17"/>
-    </row>
-    <row r="39" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A39" s="26"/>
-      <c r="B39" s="6">
-        <v>9</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="17"/>
-    </row>
-    <row r="40" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A40" s="26"/>
-      <c r="B40" s="6">
-        <v>10</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" s="19">
-        <v>11</v>
-      </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K40" s="22"/>
+      <c r="K39" s="22"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+    </row>
+    <row r="42" spans="1:11" s="24" customFormat="1" ht="12.75">
+      <c r="A42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
     </row>
     <row r="43" spans="1:11" s="24" customFormat="1" ht="12.75">
       <c r="A43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
     </row>
     <row r="44" spans="1:11" s="24" customFormat="1" ht="12.75">
       <c r="A44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
     </row>
     <row r="45" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="27"/>
+      <c r="B45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-    </row>
-    <row r="46" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A46" s="26"/>
-      <c r="B46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" s="3" t="s">
+    </row>
+    <row r="46" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A46" s="27"/>
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="18">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A47" s="26"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="22"/>
+    </row>
+    <row r="47" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A47" s="27"/>
       <c r="B47" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F47" s="18">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
       <c r="K47" s="22"/>
     </row>
-    <row r="48" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="48" spans="1:11" s="24" customFormat="1" ht="12.75">
+      <c r="A48" s="27"/>
       <c r="B48" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>59</v>
       </c>
       <c r="F48" s="18">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G48" s="22"/>
-      <c r="H48" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
       <c r="K48" s="22"/>
     </row>
     <row r="49" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A49" s="26"/>
+      <c r="A49" s="27"/>
       <c r="B49" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F49" s="18">
-        <v>100</v>
-      </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G49" s="22">
+        <v>0</v>
+      </c>
+      <c r="H49" s="18"/>
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
     </row>
     <row r="50" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A50" s="26"/>
+      <c r="A50" s="27"/>
       <c r="B50" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" s="18">
-        <v>1</v>
-      </c>
-      <c r="G50" s="22">
-        <v>0</v>
-      </c>
-      <c r="H50" s="18"/>
+        <v>76</v>
+      </c>
+      <c r="F50" s="18"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
     </row>
     <row r="51" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A51" s="26"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F51" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="F51" s="18">
+        <v>11</v>
+      </c>
       <c r="G51" s="22"/>
-      <c r="H51" s="20" t="s">
+      <c r="H51" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
+      <c r="J51" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="K51" s="22"/>
     </row>
     <row r="52" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A52" s="26"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>77</v>
@@ -33653,54 +33681,54 @@
         <v>78</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" s="18">
-        <v>11</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F52" s="18"/>
       <c r="G52" s="22"/>
       <c r="H52" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I52" s="22"/>
-      <c r="J52" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="17"/>
     </row>
     <row r="53" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A53" s="26"/>
+      <c r="A53" s="27"/>
       <c r="B53" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="F53" s="18">
+        <v>11</v>
+      </c>
       <c r="G53" s="22"/>
       <c r="H53" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
+      <c r="J53" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="K53" s="17"/>
     </row>
     <row r="54" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A54" s="26"/>
+      <c r="A54" s="27"/>
       <c r="B54" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>53</v>
@@ -33708,236 +33736,261 @@
       <c r="F54" s="18">
         <v>11</v>
       </c>
-      <c r="G54" s="22"/>
+      <c r="G54" s="17"/>
       <c r="H54" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="I54" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J54" s="22"/>
       <c r="K54" s="17"/>
     </row>
-    <row r="55" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A55" s="26"/>
-      <c r="B55" s="6">
-        <v>9</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" s="18">
-        <v>11</v>
-      </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="J55" s="22"/>
-      <c r="K55" s="17"/>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+    </row>
+    <row r="57" spans="1:11" s="26" customFormat="1" ht="12.75">
+      <c r="A57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
     </row>
     <row r="58" spans="1:11" s="26" customFormat="1" ht="12.75">
       <c r="A58" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
+        <v>9</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
     </row>
     <row r="59" spans="1:11" s="26" customFormat="1" ht="12.75">
       <c r="A59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+        <v>11</v>
+      </c>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
     </row>
     <row r="60" spans="1:11" s="26" customFormat="1" ht="12.75">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-    </row>
-    <row r="61" spans="1:11" s="26" customFormat="1" ht="12.75">
-      <c r="B61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K61" s="3" t="s">
+    </row>
+    <row r="61" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A61" s="27"/>
+      <c r="B61" s="6">
+        <v>1</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="18">
         <v>11</v>
       </c>
+      <c r="G61" s="22"/>
+      <c r="H61" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K61" s="22"/>
     </row>
     <row r="62" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A62" s="27"/>
       <c r="B62" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F62" s="18">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="G62" s="22"/>
       <c r="H62" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I62" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J62" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
       <c r="K62" s="22"/>
     </row>
-    <row r="63" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="63" spans="1:11" s="26" customFormat="1" ht="12.75">
+      <c r="A63" s="27"/>
       <c r="B63" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F63" s="18">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="G63" s="22"/>
       <c r="H63" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="K63" s="22"/>
     </row>
     <row r="64" spans="1:11" s="26" customFormat="1" ht="12.75">
+      <c r="A64" s="27"/>
       <c r="B64" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F64" s="18">
-        <v>11</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F64" s="18"/>
       <c r="G64" s="22"/>
-      <c r="H64" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="H64" s="18"/>
       <c r="I64" s="22"/>
-      <c r="J64" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="J64" s="22"/>
       <c r="K64" s="22"/>
     </row>
     <row r="65" spans="1:11" s="26" customFormat="1" ht="12.75">
+      <c r="A65" s="27"/>
       <c r="B65" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F65" s="18"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="18"/>
+        <v>73</v>
+      </c>
+      <c r="F65" s="18">
+        <v>1</v>
+      </c>
+      <c r="G65" s="22">
+        <v>0</v>
+      </c>
+      <c r="H65" s="20"/>
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="22"/>
     </row>
     <row r="66" spans="1:11" s="26" customFormat="1" ht="12.75">
+      <c r="A66" s="27"/>
       <c r="B66" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>73</v>
@@ -33948,60 +34001,65 @@
       <c r="G66" s="22">
         <v>0</v>
       </c>
-      <c r="H66" s="20"/>
+      <c r="H66" s="21"/>
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
       <c r="K66" s="22"/>
     </row>
     <row r="67" spans="1:11" s="26" customFormat="1" ht="12.75">
+      <c r="A67" s="27"/>
       <c r="B67" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F67" s="18">
-        <v>1</v>
-      </c>
-      <c r="G67" s="22">
-        <v>0</v>
-      </c>
-      <c r="H67" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="F67" s="18"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
+      <c r="K67" s="17"/>
     </row>
     <row r="68" spans="1:11" s="26" customFormat="1" ht="12.75">
+      <c r="A68" s="27"/>
       <c r="B68" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F68" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="F68" s="18">
+        <v>11</v>
+      </c>
       <c r="G68" s="22"/>
       <c r="H68" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
+      <c r="J68" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="K68" s="17"/>
     </row>
     <row r="69" spans="1:11" s="26" customFormat="1" ht="12.75">
+      <c r="A69" s="27"/>
       <c r="B69" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>77</v>
@@ -34010,190 +34068,192 @@
         <v>78</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F69" s="18">
-        <v>11</v>
-      </c>
-      <c r="G69" s="22"/>
+        <v>76</v>
+      </c>
+      <c r="F69" s="18"/>
+      <c r="G69" s="17"/>
       <c r="H69" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I69" s="22"/>
-      <c r="J69" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="J69" s="22"/>
       <c r="K69" s="17"/>
     </row>
     <row r="70" spans="1:11" s="26" customFormat="1" ht="12.75">
+      <c r="A70" s="27"/>
       <c r="B70" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="17"/>
+        <v>98</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" s="19">
+        <v>11</v>
+      </c>
+      <c r="G70" s="22"/>
       <c r="H70" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="17"/>
+      <c r="J70" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K70" s="22"/>
     </row>
     <row r="71" spans="1:11" s="26" customFormat="1" ht="12.75">
+      <c r="A71" s="27"/>
       <c r="B71" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E71" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F71" s="18">
         <v>11</v>
       </c>
       <c r="G71" s="22"/>
       <c r="H71" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="I71" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J71" s="22"/>
       <c r="K71" s="22"/>
     </row>
-    <row r="72" spans="1:11" s="26" customFormat="1" ht="12.75">
-      <c r="B72" s="6">
-        <v>11</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F72" s="18">
-        <v>11</v>
-      </c>
-      <c r="G72" s="22"/>
-      <c r="H72" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I72" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22931"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="409" documentId="11_3E21DB30A2484D11841266A29219685ED151E7F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08E3EE6F-D241-4522-9C8B-AEF1E6FFB829}"/>
+  <xr:revisionPtr revIDLastSave="438" documentId="11_3E21DB30A2484D11841266A29219685ED151E7F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0331B66D-C918-48AA-89CA-11D8B35E987C}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="120">
   <si>
     <t>改定履歴</t>
   </si>
@@ -653,9 +653,6 @@
     <t>cell_phone</t>
   </si>
   <si>
-    <t>_x0008_varchar</t>
-  </si>
-  <si>
     <t>論理削除</t>
   </si>
   <si>
@@ -737,6 +734,9 @@
     <t>create_user_id</t>
   </si>
   <si>
+    <t>FK</t>
+  </si>
+  <si>
     <t>更新者</t>
   </si>
   <si>
@@ -765,9 +765,6 @@
   </si>
   <si>
     <t>attachment_file</t>
-  </si>
-  <si>
-    <t>FK</t>
   </si>
   <si>
     <t>tasks</t>
@@ -937,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -990,6 +987,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -32162,7 +32160,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="D20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -32179,61 +32177,61 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -32264,11 +32262,11 @@
       <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="6">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -32296,11 +32294,11 @@
         <v>27</v>
       </c>
       <c r="K5" s="22"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32324,11 +32322,11 @@
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32350,11 +32348,11 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32382,11 +32380,11 @@
       <c r="K8" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32408,11 +32406,11 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32436,11 +32434,11 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32462,11 +32460,11 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32490,8 +32488,8 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32512,9 +32510,9 @@
   </sheetPr>
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32531,53 +32529,53 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -32610,7 +32608,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="8">
         <f>ROW()-4</f>
         <v>1</v>
@@ -32640,7 +32638,7 @@
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="6">
         <f t="shared" ref="B6:B14" si="0">ROW()-4</f>
         <v>2</v>
@@ -32666,7 +32664,7 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32692,7 +32690,7 @@
       <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32718,7 +32716,7 @@
       <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32742,7 +32740,7 @@
       <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32766,7 +32764,7 @@
       <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32778,7 +32776,7 @@
         <v>69</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F11" s="18">
         <v>13</v>
@@ -32790,19 +32788,19 @@
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F12" s="18">
         <v>1</v>
@@ -32818,19 +32816,19 @@
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="17"/>
@@ -32842,19 +32840,19 @@
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="E14" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="22"/>
@@ -32866,82 +32864,82 @@
       <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="12.75">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="B17" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
+      <c r="B18" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="12.75">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="12.75">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
@@ -32974,12 +32972,12 @@
       </c>
     </row>
     <row r="21" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="6">
         <v>1</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>52</v>
@@ -33001,15 +32999,15 @@
       <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" ht="12.75">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="6">
         <v>2</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>53</v>
@@ -33028,17 +33026,18 @@
       <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11" s="27" customFormat="1" ht="12.75">
+      <c r="A23" s="28"/>
       <c r="B23" s="6">
         <v>3</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="E23" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="22"/>
@@ -33050,82 +33049,82 @@
       <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
     </row>
     <row r="26" spans="1:11" s="24" customFormat="1">
       <c r="A26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
+      <c r="B26" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
     </row>
     <row r="27" spans="1:11" s="24" customFormat="1">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
+      <c r="B27" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
     </row>
     <row r="28" spans="1:11" s="24" customFormat="1">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
     </row>
     <row r="29" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
@@ -33158,15 +33157,15 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="6">
         <v>1</v>
       </c>
       <c r="C30" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>53</v>
@@ -33187,15 +33186,15 @@
       <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="27"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="6">
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>59</v>
@@ -33212,15 +33211,15 @@
       <c r="K31" s="22"/>
     </row>
     <row r="32" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A32" s="27"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="6">
         <v>3</v>
       </c>
       <c r="C32" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>59</v>
@@ -33235,18 +33234,18 @@
       <c r="K32" s="22"/>
     </row>
     <row r="33" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A33" s="27"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="6">
         <v>4</v>
       </c>
       <c r="C33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>93</v>
-      </c>
       <c r="E33" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="18">
         <v>1</v>
@@ -33260,18 +33259,18 @@
       <c r="K33" s="22"/>
     </row>
     <row r="34" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A34" s="27"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="6">
         <v>5</v>
       </c>
       <c r="C34" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>95</v>
-      </c>
       <c r="E34" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F34" s="18">
         <v>1</v>
@@ -33285,18 +33284,18 @@
       <c r="K34" s="22"/>
     </row>
     <row r="35" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A35" s="27"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="6">
         <v>6</v>
       </c>
       <c r="C35" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="E35" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F35" s="18">
         <v>1</v>
@@ -33310,18 +33309,18 @@
       <c r="K35" s="22"/>
     </row>
     <row r="36" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A36" s="27"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="6">
         <v>7</v>
       </c>
       <c r="C36" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="E36" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="22"/>
@@ -33333,15 +33332,15 @@
       <c r="K36" s="17"/>
     </row>
     <row r="37" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A37" s="27"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="6">
         <v>8</v>
       </c>
       <c r="C37" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>97</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>53</v>
@@ -33353,25 +33352,25 @@
       <c r="H37" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="I37" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J37" s="22"/>
       <c r="K37" s="17"/>
     </row>
     <row r="38" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A38" s="27"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="6">
         <v>9</v>
       </c>
       <c r="C38" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="14" t="s">
-        <v>78</v>
-      </c>
       <c r="E38" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="17"/>
@@ -33383,7 +33382,7 @@
       <c r="K38" s="17"/>
     </row>
     <row r="39" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A39" s="27"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="6">
         <v>10</v>
       </c>
@@ -33403,89 +33402,89 @@
       <c r="H39" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="I39" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39" s="22"/>
       <c r="K39" s="22"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
     </row>
     <row r="42" spans="1:11" s="24" customFormat="1" ht="12.75">
       <c r="A42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
     </row>
     <row r="43" spans="1:11" s="24" customFormat="1" ht="12.75">
       <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
     </row>
     <row r="44" spans="1:11" s="24" customFormat="1" ht="12.75">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
     </row>
     <row r="45" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A45" s="27"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="3" t="s">
         <v>13</v>
       </c>
@@ -33518,7 +33517,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A46" s="27"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="6">
         <v>1</v>
       </c>
@@ -33547,7 +33546,7 @@
       <c r="K46" s="22"/>
     </row>
     <row r="47" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A47" s="27"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="6">
         <v>2</v>
       </c>
@@ -33572,7 +33571,7 @@
       <c r="K47" s="22"/>
     </row>
     <row r="48" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A48" s="27"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="6">
         <v>3</v>
       </c>
@@ -33595,18 +33594,18 @@
       <c r="K48" s="22"/>
     </row>
     <row r="49" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A49" s="27"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="6">
         <v>4</v>
       </c>
       <c r="C49" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="E49" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F49" s="18">
         <v>1</v>
@@ -33620,18 +33619,18 @@
       <c r="K49" s="22"/>
     </row>
     <row r="50" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A50" s="27"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="6">
         <v>5</v>
       </c>
       <c r="C50" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="E50" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="22"/>
@@ -33643,15 +33642,15 @@
       <c r="K50" s="22"/>
     </row>
     <row r="51" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A51" s="27"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="6">
         <v>6</v>
       </c>
       <c r="C51" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>97</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>53</v>
@@ -33663,25 +33662,25 @@
       <c r="H51" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="I51" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J51" s="22"/>
       <c r="K51" s="22"/>
     </row>
     <row r="52" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A52" s="27"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="6">
         <v>7</v>
       </c>
       <c r="C52" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="14" t="s">
-        <v>78</v>
-      </c>
       <c r="E52" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="22"/>
@@ -33693,7 +33692,7 @@
       <c r="K52" s="17"/>
     </row>
     <row r="53" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A53" s="27"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="6">
         <v>8</v>
       </c>
@@ -33713,22 +33712,22 @@
       <c r="H53" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="I53" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J53" s="22"/>
       <c r="K53" s="17"/>
     </row>
     <row r="54" spans="1:11" s="24" customFormat="1" ht="12.75">
-      <c r="A54" s="27"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="6">
         <v>9</v>
       </c>
       <c r="C54" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>53</v>
@@ -33741,88 +33740,88 @@
         <v>54</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J54" s="22"/>
       <c r="K54" s="17"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
     </row>
     <row r="57" spans="1:11" s="26" customFormat="1" ht="12.75">
       <c r="A57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
+      <c r="B57" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
     </row>
     <row r="58" spans="1:11" s="26" customFormat="1" ht="12.75">
       <c r="A58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
+      <c r="B58" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
     </row>
     <row r="59" spans="1:11" s="26" customFormat="1" ht="12.75">
       <c r="A59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
     </row>
     <row r="60" spans="1:11" s="26" customFormat="1" ht="12.75">
-      <c r="A60" s="27"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="3" t="s">
         <v>13</v>
       </c>
@@ -33855,15 +33854,15 @@
       </c>
     </row>
     <row r="61" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A61" s="27"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="6">
         <v>1</v>
       </c>
       <c r="C61" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>53</v>
@@ -33884,15 +33883,15 @@
       <c r="K61" s="22"/>
     </row>
     <row r="62" spans="1:11" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A62" s="27"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="6">
         <v>2</v>
       </c>
       <c r="C62" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>59</v>
@@ -33909,15 +33908,15 @@
       <c r="K62" s="22"/>
     </row>
     <row r="63" spans="1:11" s="26" customFormat="1" ht="12.75">
-      <c r="A63" s="27"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="6">
         <v>3</v>
       </c>
       <c r="C63" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>53</v>
@@ -33936,18 +33935,18 @@
       <c r="K63" s="22"/>
     </row>
     <row r="64" spans="1:11" s="26" customFormat="1" ht="12.75">
-      <c r="A64" s="27"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="6">
         <v>4</v>
       </c>
       <c r="C64" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E64" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="22"/>
@@ -33957,18 +33956,18 @@
       <c r="K64" s="22"/>
     </row>
     <row r="65" spans="1:11" s="26" customFormat="1" ht="12.75">
-      <c r="A65" s="27"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="6">
         <v>5</v>
       </c>
       <c r="C65" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D65" s="14" t="s">
-        <v>120</v>
-      </c>
       <c r="E65" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F65" s="18">
         <v>1</v>
@@ -33982,18 +33981,18 @@
       <c r="K65" s="22"/>
     </row>
     <row r="66" spans="1:11" s="26" customFormat="1" ht="12.75">
-      <c r="A66" s="27"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="6">
         <v>6</v>
       </c>
       <c r="C66" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="E66" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F66" s="18">
         <v>1</v>
@@ -34007,18 +34006,18 @@
       <c r="K66" s="22"/>
     </row>
     <row r="67" spans="1:11" s="26" customFormat="1" ht="12.75">
-      <c r="A67" s="27"/>
+      <c r="A67" s="28"/>
       <c r="B67" s="6">
         <v>7</v>
       </c>
       <c r="C67" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="E67" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="22"/>
@@ -34030,15 +34029,15 @@
       <c r="K67" s="17"/>
     </row>
     <row r="68" spans="1:11" s="26" customFormat="1" ht="12.75">
-      <c r="A68" s="27"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="6">
         <v>8</v>
       </c>
       <c r="C68" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>97</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>53</v>
@@ -34050,25 +34049,25 @@
       <c r="H68" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="I68" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J68" s="22"/>
       <c r="K68" s="17"/>
     </row>
     <row r="69" spans="1:11" s="26" customFormat="1" ht="12.75">
-      <c r="A69" s="27"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="6">
         <v>9</v>
       </c>
       <c r="C69" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="14" t="s">
-        <v>78</v>
-      </c>
       <c r="E69" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="17"/>
@@ -34080,7 +34079,7 @@
       <c r="K69" s="17"/>
     </row>
     <row r="70" spans="1:11" s="26" customFormat="1" ht="12.75">
-      <c r="A70" s="27"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="6">
         <v>10</v>
       </c>
@@ -34100,22 +34099,22 @@
       <c r="H70" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="I70" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J70" s="22"/>
       <c r="K70" s="22"/>
     </row>
     <row r="71" spans="1:11" s="26" customFormat="1" ht="12.75">
-      <c r="A71" s="27"/>
+      <c r="A71" s="28"/>
       <c r="B71" s="6">
         <v>11</v>
       </c>
       <c r="C71" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>83</v>
       </c>
       <c r="E71" s="17" t="s">
         <v>53</v>
@@ -34128,117 +34127,124 @@
         <v>54</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J71" s="22"/>
       <c r="K71" s="22"/>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B44:D44"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -34247,13 +34253,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B44:D44"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
